--- a/Reporte_20-02-2024.xlsx
+++ b/Reporte_20-02-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/760bd3889b7e3fb6/Escritorio/Adentu/ProcesamientoCodigos/ProcesamientoCodigos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_08D567AFDDBAD864C5A1D7F0505ED87656CDC8D3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BFDA86E-B924-4F98-91D4-EB02B6907885}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_08D567AFDDBAD864C5A1D7F0505ED87656CDC8D3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62AA07A1-8189-4614-87D0-EDB59EC5A97E}"/>
   <bookViews>
-    <workbookView xWindow="-24870" yWindow="4635" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="1245" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -698,13 +698,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
